--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABCD/10/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABCD/10/seed1/result_data_KNN.xlsx
@@ -485,10 +485,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-22.25</v>
+        <v>-21.937</v>
       </c>
       <c r="B4" t="n">
-        <v>6.228000000000001</v>
+        <v>5.942</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-20.816</v>
+        <v>-20.523</v>
       </c>
       <c r="B7" t="n">
         <v>9.43</v>
@@ -575,7 +575,7 @@
         <v>6.17</v>
       </c>
       <c r="C10" t="n">
-        <v>-13.554</v>
+        <v>-12.859</v>
       </c>
       <c r="D10" t="n">
         <v>-8.85</v>
@@ -600,7 +600,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.604000000000001</v>
+        <v>4.939</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -617,7 +617,7 @@
         <v>4.02</v>
       </c>
       <c r="C13" t="n">
-        <v>-12.692</v>
+        <v>-13.097</v>
       </c>
       <c r="D13" t="n">
         <v>-8.359999999999999</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-22.11</v>
+        <v>-22.109</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -684,7 +684,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>5.466</v>
+        <v>5.231</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -698,7 +698,7 @@
         <v>-18.24</v>
       </c>
       <c r="B19" t="n">
-        <v>7.696000000000001</v>
+        <v>7.754999999999998</v>
       </c>
       <c r="C19" t="n">
         <v>-12.15</v>
@@ -712,7 +712,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>7.486</v>
+        <v>6.867999999999999</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -788,7 +788,7 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.144</v>
+        <v>-7.831</v>
       </c>
     </row>
     <row r="26">
@@ -821,7 +821,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.398</v>
+        <v>-21.522</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.16</v>
+        <v>-21.496</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -855,7 +855,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-10.674</v>
+        <v>-11.769</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -866,7 +866,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>6.287999999999999</v>
+        <v>6.395999999999999</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.938</v>
+        <v>-22.002</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -914,7 +914,7 @@
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-7.762</v>
+        <v>-7.904000000000001</v>
       </c>
     </row>
     <row r="35">
@@ -984,18 +984,18 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-7.513999999999998</v>
+        <v>-7.692</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-21.222</v>
+        <v>-21.659</v>
       </c>
       <c r="B40" t="n">
-        <v>5.694</v>
+        <v>5.88</v>
       </c>
       <c r="C40" t="n">
-        <v>-11.322</v>
+        <v>-11.584</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1020,7 +1020,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>7.248</v>
+        <v>6.854000000000001</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1051,7 +1051,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-12.566</v>
+        <v>-11.682</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1090,7 +1090,7 @@
         <v>-21.83</v>
       </c>
       <c r="B47" t="n">
-        <v>6.604000000000001</v>
+        <v>5.781000000000001</v>
       </c>
       <c r="C47" t="n">
         <v>-11.84</v>
@@ -1104,7 +1104,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.688000000000001</v>
+        <v>5.523999999999999</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-21.396</v>
+        <v>-21.514</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.948</v>
+        <v>-22.042</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1292,7 +1292,7 @@
         <v>-11.89</v>
       </c>
       <c r="D61" t="n">
-        <v>-8.120000000000001</v>
+        <v>-8.157999999999998</v>
       </c>
     </row>
     <row r="62">
@@ -1314,7 +1314,7 @@
         <v>-21.46</v>
       </c>
       <c r="B63" t="n">
-        <v>4.604</v>
+        <v>5.252</v>
       </c>
       <c r="C63" t="n">
         <v>-9.970000000000001</v>
@@ -1328,13 +1328,13 @@
         <v>-21.62</v>
       </c>
       <c r="B64" t="n">
-        <v>5.268000000000001</v>
+        <v>5.935</v>
       </c>
       <c r="C64" t="n">
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-7.608</v>
+        <v>-7.906999999999999</v>
       </c>
     </row>
     <row r="65">
@@ -1353,7 +1353,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.608</v>
+        <v>-21.482</v>
       </c>
       <c r="B66" t="n">
         <v>5.18</v>
@@ -1496,7 +1496,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>5.949999999999999</v>
+        <v>6.462000000000001</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1530,7 +1530,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-8.398</v>
+        <v>-8.343999999999999</v>
       </c>
     </row>
     <row r="79">
@@ -1566,7 +1566,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>6.088</v>
+        <v>5.979000000000001</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1600,7 +1600,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.443999999999999</v>
+        <v>-8.1</v>
       </c>
     </row>
     <row r="84">
@@ -1678,10 +1678,10 @@
         <v>-22.69</v>
       </c>
       <c r="B89" t="n">
-        <v>4.6</v>
+        <v>4.81</v>
       </c>
       <c r="C89" t="n">
-        <v>-13.598</v>
+        <v>-13.71</v>
       </c>
       <c r="D89" t="n">
         <v>-8.140000000000001</v>
@@ -1709,7 +1709,7 @@
         <v>7.49</v>
       </c>
       <c r="C91" t="n">
-        <v>-11.814</v>
+        <v>-12.353</v>
       </c>
       <c r="D91" t="n">
         <v>-8.890000000000001</v>
@@ -1726,7 +1726,7 @@
         <v>-9.789999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>-7.140000000000001</v>
+        <v>-7.117</v>
       </c>
     </row>
     <row r="93">
@@ -1748,7 +1748,7 @@
         <v>-21.6</v>
       </c>
       <c r="B94" t="n">
-        <v>5.742</v>
+        <v>5.887</v>
       </c>
       <c r="C94" t="n">
         <v>-9.49</v>
@@ -1810,7 +1810,7 @@
         <v>-10.59</v>
       </c>
       <c r="D98" t="n">
-        <v>-7.901999999999999</v>
+        <v>-7.468000000000001</v>
       </c>
     </row>
     <row r="99">
@@ -1829,7 +1829,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.218</v>
+        <v>-22.124</v>
       </c>
       <c r="B100" t="n">
         <v>4.73</v>
